--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/big_sister.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/big_sister.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12756CB-0248-40B8-AAA3-90D54C020793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC9002-F7A0-4B21-BAC7-80726CB7DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,35 +175,35 @@
     <t>Ahaha, there are no angels. But it's okay, as long as #bigdaddy is here.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tem alguém aí, tem alguém aí?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olha, #bigdaddy, um anjo... veja... um anjo!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Hehe, minha cabeça está estranha de novo. Desculpe, #bigdaddy... Mas, se um anjo realmente viesse até nós... que maravilhoso isso seria.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temos que proteger os Pequenos, não temos, #bigdaddy, certo...? O mundo lá fora é tão... assustador. Só o Pequeno Jardim é seguro, nosso... lar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Sim, é nossa missão. Proteger os Pequenos. Esse é nosso... dever, #bigdaddy? Não perdoaremos ninguém que machuque os Pequenos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pobrezinhos... os Pequenos estão perdidos no mundo lá fora. Eles não conhecem nosso Pequeno Jardim. Estão perdidos, #bigdaddy.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Hehe, se realmente existissem anjos, que maravilhoso isso seria. Os anjos certamente viriam nos ajudar... porque é isso que os anjos fazem. Eles encontrariam os Pequenos e os trariam para cá. Ei, #bigdaddy, os anjos certamente virão nos ajudar.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Hehe, uma nova Pequena veio até nós, #bigdaddy. Não está mais perdida. A partir de agora, nós a protegeremos, não importa o que aconteça... certo, #bigdaddy?  
-Obrigado, anjo... Ei, #bigdaddy, você acha que anjos realmente existem? Se realmente existissem anjos, que maravilhoso isso seria.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Nosso Pequeno... nossa Pequena... Os anjos são cruéis, #bigdaddy... Os anjos deixaram nossa Pequena morrer. Nós devemos... protegê-los... deste imenso mundo. Aqui... para eles... o Pequeno... Jardim...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahaha, não existem anjos. Mas tudo bem, enquanto #bigdaddy estiver aqui.  </t>
+    <t>Tem alguém aí?</t>
+  </si>
+  <si>
+    <t>Veja, #bigdaddy, um anjo... Veja... Um anjo!</t>
+  </si>
+  <si>
+    <t>... Hehe, minha imaginação está meio estranha de novo. Sinto muito, #bigdaddy... Mas, se um anjo realmente viesse até nós... Que maravilha seria.</t>
+  </si>
+  <si>
+    <t>Temos que proteger os Pequenos, não é, #bigdaddy, certo...? O mundo lá fora é tão... assustador. Só o Pequeno Jardim é seguro, nosso... lar.</t>
+  </si>
+  <si>
+    <t>... Hehe, se realmente existissem anjos, seria tão maravilhoso. Os anjos com certeza viriam nos ajudar... porque é isso que os anjos fazem. Eles encontrariam os Pequenos e os trariam pra cá. Ei, #bigdaddy, os anjos com certeza virão nos ajudar.</t>
+  </si>
+  <si>
+    <t>Pobrezinhos... Os Pequenos estão perdidos no mundo lá fora. Eles não conhecem nosso Pequeno Jardim. Estão perdidos, #bigdaddy.</t>
+  </si>
+  <si>
+    <t>... Sim, é nossa missão. Proteger os Pequenos. Esse é nosso... Dever, #bigdaddy? Não vamos perdoar ninguém que machuque os Pequenos.</t>
+  </si>
+  <si>
+    <t>... Hehe, uma nova Pequena chegou até nós, #bigdaddy. Não está mais perdida. A partir de agora, vamos protegê-la, custe o que custar... Certo, #bigdaddy?
+Obrigada, anjo... Ei, #bigdaddy, você acha que anjos realmente existem? Se de fato existissem anjos, quão maravilhoso seria.</t>
+  </si>
+  <si>
+    <t>... Nosso pequeno... Nosso Pequeno... Os anjos são cruéis, #bigdaddy... Os anjos deixam nosso pequeno morrer. Devemos... Protegê-los... Deste vasto mundo. Aqui... para eles... o Pequeno... Jardim…</t>
+  </si>
+  <si>
+    <t>Ahaha, não há anjos. Mas está tudo bem, desde que o #bigdaddy esteja aqui.</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -588,7 +588,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="40.5">
+    <row r="10" spans="1:11">
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="H10">
@@ -604,7 +604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="67.5">
+    <row r="11" spans="1:11">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="H11">
@@ -620,7 +620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="189">
+    <row r="12" spans="1:11" ht="40.5">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="H12">
@@ -636,7 +636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="231">
+    <row r="13" spans="1:11" ht="54">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="H13">
@@ -652,7 +652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="202.5">
+    <row r="14" spans="1:11" ht="40.5">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="H14">
@@ -665,10 +665,10 @@
         <v>26</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="202.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.5">
       <c r="H15">
         <v>6</v>
       </c>
@@ -687,7 +687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="310.5">
+    <row r="17" spans="1:11" ht="84">
       <c r="H17">
         <v>7</v>
       </c>
@@ -698,7 +698,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18.75">
@@ -737,7 +737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="409.5">
+    <row r="26" spans="1:11" ht="115.5">
       <c r="H26">
         <v>8</v>
       </c>
